--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H2">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I2">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J2">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.7083971942555</v>
+        <v>0.3374003333333333</v>
       </c>
       <c r="N2">
-        <v>16.7083971942555</v>
+        <v>1.012201</v>
       </c>
       <c r="O2">
-        <v>0.9254059082290516</v>
+        <v>0.01738364872808817</v>
       </c>
       <c r="P2">
-        <v>0.9254059082290516</v>
+        <v>0.01738364872808818</v>
       </c>
       <c r="Q2">
-        <v>864.3324330176644</v>
+        <v>24.06645401875867</v>
       </c>
       <c r="R2">
-        <v>864.3324330176644</v>
+        <v>216.598086168828</v>
       </c>
       <c r="S2">
-        <v>0.2454481199544881</v>
+        <v>0.005749579386943695</v>
       </c>
       <c r="T2">
-        <v>0.2454481199544881</v>
+        <v>0.005749579386943698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7304217136297</v>
+        <v>71.329076</v>
       </c>
       <c r="H3">
-        <v>51.7304217136297</v>
+        <v>213.987228</v>
       </c>
       <c r="I3">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J3">
-        <v>0.2652329294333142</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34681192606484</v>
+        <v>16.71131166666667</v>
       </c>
       <c r="N3">
-        <v>1.34681192606484</v>
+        <v>50.133935</v>
       </c>
       <c r="O3">
-        <v>0.07459409177094839</v>
+        <v>0.8610055862391021</v>
       </c>
       <c r="P3">
-        <v>0.07459409177094839</v>
+        <v>0.8610055862391023</v>
       </c>
       <c r="Q3">
-        <v>69.67114890428003</v>
+        <v>1192.002419931353</v>
       </c>
       <c r="R3">
-        <v>69.67114890428003</v>
+        <v>10728.02177938218</v>
       </c>
       <c r="S3">
-        <v>0.01978480947882612</v>
+        <v>0.2847745055205192</v>
       </c>
       <c r="T3">
-        <v>0.01978480947882612</v>
+        <v>0.2847745055205194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>128.871908623701</v>
+        <v>71.329076</v>
       </c>
       <c r="H4">
-        <v>128.871908623701</v>
+        <v>213.987228</v>
       </c>
       <c r="I4">
-        <v>0.6607538217095325</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="J4">
-        <v>0.6607538217095325</v>
+        <v>0.3307464087015077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.7083971942555</v>
+        <v>2.360351</v>
       </c>
       <c r="N4">
-        <v>16.7083971942555</v>
+        <v>7.081053000000001</v>
       </c>
       <c r="O4">
-        <v>0.9254059082290516</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="P4">
-        <v>0.9254059082290516</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="Q4">
-        <v>2153.243036466597</v>
+        <v>168.361655865676</v>
       </c>
       <c r="R4">
-        <v>2153.243036466597</v>
+        <v>1515.254902791084</v>
       </c>
       <c r="S4">
-        <v>0.6114654904949267</v>
+        <v>0.04022232379404468</v>
       </c>
       <c r="T4">
-        <v>0.6114654904949267</v>
+        <v>0.0402223237940447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>128.871908623701</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H5">
-        <v>128.871908623701</v>
+        <v>388.684601</v>
       </c>
       <c r="I5">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J5">
-        <v>0.6607538217095325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.34681192606484</v>
+        <v>0.3374003333333333</v>
       </c>
       <c r="N5">
-        <v>1.34681192606484</v>
+        <v>1.012201</v>
       </c>
       <c r="O5">
-        <v>0.07459409177094839</v>
+        <v>0.01738364872808817</v>
       </c>
       <c r="P5">
-        <v>0.07459409177094839</v>
+        <v>0.01738364872808818</v>
       </c>
       <c r="Q5">
-        <v>173.5662234691388</v>
+        <v>43.71410464631123</v>
       </c>
       <c r="R5">
-        <v>173.5662234691388</v>
+        <v>393.426941816801</v>
       </c>
       <c r="S5">
-        <v>0.04928833121460573</v>
+        <v>0.01044348763624358</v>
       </c>
       <c r="T5">
-        <v>0.04928833121460573</v>
+        <v>0.01044348763624358</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.435374159448</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H6">
-        <v>14.435374159448</v>
+        <v>388.684601</v>
       </c>
       <c r="I6">
-        <v>0.07401324885715325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J6">
-        <v>0.07401324885715325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7083971942555</v>
+        <v>16.71131166666667</v>
       </c>
       <c r="N6">
-        <v>16.7083971942555</v>
+        <v>50.133935</v>
       </c>
       <c r="O6">
-        <v>0.9254059082290516</v>
+        <v>0.8610055862391021</v>
       </c>
       <c r="P6">
-        <v>0.9254059082290516</v>
+        <v>0.8610055862391023</v>
       </c>
       <c r="Q6">
-        <v>241.1919651037493</v>
+        <v>2165.143169114993</v>
       </c>
       <c r="R6">
-        <v>241.1919651037493</v>
+        <v>19486.28852203494</v>
       </c>
       <c r="S6">
-        <v>0.06849229777963672</v>
+        <v>0.5172620164658395</v>
       </c>
       <c r="T6">
-        <v>0.06849229777963672</v>
+        <v>0.5172620164658396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.435374159448</v>
+        <v>129.5615336666667</v>
       </c>
       <c r="H7">
-        <v>14.435374159448</v>
+        <v>388.684601</v>
       </c>
       <c r="I7">
-        <v>0.07401324885715325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="J7">
-        <v>0.07401324885715325</v>
+        <v>0.6007649947142101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.34681192606484</v>
+        <v>2.360351</v>
       </c>
       <c r="N7">
-        <v>1.34681192606484</v>
+        <v>7.081053000000001</v>
       </c>
       <c r="O7">
-        <v>0.07459409177094839</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="P7">
-        <v>0.07459409177094839</v>
+        <v>0.1216107650328097</v>
       </c>
       <c r="Q7">
-        <v>19.44173407515278</v>
+        <v>305.8106955516504</v>
       </c>
       <c r="R7">
-        <v>19.44173407515278</v>
+        <v>2752.296259964854</v>
       </c>
       <c r="S7">
-        <v>0.005520951077516531</v>
+        <v>0.07305949061212694</v>
       </c>
       <c r="T7">
-        <v>0.005520951077516531</v>
+        <v>0.07305949061212696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.770314</v>
+      </c>
+      <c r="H8">
+        <v>44.310942</v>
+      </c>
+      <c r="I8">
+        <v>0.06848859658428214</v>
+      </c>
+      <c r="J8">
+        <v>0.06848859658428215</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3374003333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.012201</v>
+      </c>
+      <c r="O8">
+        <v>0.01738364872808817</v>
+      </c>
+      <c r="P8">
+        <v>0.01738364872808818</v>
+      </c>
+      <c r="Q8">
+        <v>4.983508867038</v>
+      </c>
+      <c r="R8">
+        <v>44.851579803342</v>
+      </c>
+      <c r="S8">
+        <v>0.0011905817049009</v>
+      </c>
+      <c r="T8">
+        <v>0.001190581704900901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.770314</v>
+      </c>
+      <c r="H9">
+        <v>44.310942</v>
+      </c>
+      <c r="I9">
+        <v>0.06848859658428214</v>
+      </c>
+      <c r="J9">
+        <v>0.06848859658428215</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.71131166666667</v>
+      </c>
+      <c r="N9">
+        <v>50.133935</v>
+      </c>
+      <c r="O9">
+        <v>0.8610055862391021</v>
+      </c>
+      <c r="P9">
+        <v>0.8610055862391023</v>
+      </c>
+      <c r="Q9">
+        <v>246.83132066853</v>
+      </c>
+      <c r="R9">
+        <v>2221.48188601677</v>
+      </c>
+      <c r="S9">
+        <v>0.0589690642527432</v>
+      </c>
+      <c r="T9">
+        <v>0.05896906425274323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.770314</v>
+      </c>
+      <c r="H10">
+        <v>44.310942</v>
+      </c>
+      <c r="I10">
+        <v>0.06848859658428214</v>
+      </c>
+      <c r="J10">
+        <v>0.06848859658428215</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.360351</v>
+      </c>
+      <c r="N10">
+        <v>7.081053000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1216107650328097</v>
+      </c>
+      <c r="P10">
+        <v>0.1216107650328097</v>
+      </c>
+      <c r="Q10">
+        <v>34.863125420214</v>
+      </c>
+      <c r="R10">
+        <v>313.7681287819261</v>
+      </c>
+      <c r="S10">
+        <v>0.008328950626638024</v>
+      </c>
+      <c r="T10">
+        <v>0.00832895062663803</v>
       </c>
     </row>
   </sheetData>
